--- a/relation_entre_activite_bpsplunk_et_referentiel.xlsx
+++ b/relation_entre_activite_bpsplunk_et_referentiel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B850994-680D-4C41-A46C-89FF07B5B566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991FB604-9BEB-4B97-BE4C-086D987ACB37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t xml:space="preserve">Injection de fichier, Attaque brut force sur les identifiants admin, Phishing par adresse email avec l'envoi d'un malware, cryptage de fichier texte local et pdf sur serveur distant, analyser l'impact du malware par le biais de sa signature virus total, </t>
   </si>
   <si>
-    <t>Scan de vulnérabilité, Reconnaissance sur les informations du serveur et de l'application (DNS, Adresse IP, CMS, langages utilisés par l'application, les informations des mails associées au nom de domaine), test d'injection de fichier, création d'un malware qui utilise une technique d'évitement, phising avec pièce jointe, Social engeenering (phishing, partage clé USB virulé), Exploitation des failles et de l'inconscience des utilisateurs.</t>
-  </si>
-  <si>
     <t>Mise en place de l'outil Splunk pour l'analyse des logs et parcourir la masse d'informations</t>
+  </si>
+  <si>
+    <t>Scan de vulnérabilité, Reconnaissance sur les informations du serveur et de l'application (DNS, Adresse IP, CMS, langages utilisés par l'application, les informations des mails associées au nom de domaine), test d'injection de fichier, création d'un malware qui utilise une technique d'évitement, phising avec pièce jointe, Social engeenering (phishing, partage clé USB virulé), Exploitation des failles et de l'inconscience des utilisateurs, reverse shell</t>
   </si>
 </sst>
 </file>
@@ -227,6 +227,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>54125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>157108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6086700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5060EF1-A1DA-44D8-B4BA-2F9552D3C19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54125" y="4224843"/>
+          <a:ext cx="6032575" cy="2882318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6955043</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B539076-18F8-4176-B82E-3E9B3397AD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6297706" y="4233918"/>
+          <a:ext cx="6932631" cy="2575858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,7 +588,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,12 +658,12 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -583,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -634,5 +727,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/relation_entre_activite_bpsplunk_et_referentiel.xlsx
+++ b/relation_entre_activite_bpsplunk_et_referentiel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991FB604-9BEB-4B97-BE4C-086D987ACB37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00D836-3E52-49E0-A97F-A81DE8CB857C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Compétences professionnelles</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Scan de vulnérabilité, Reconnaissance sur les informations du serveur et de l'application (DNS, Adresse IP, CMS, langages utilisés par l'application, les informations des mails associées au nom de domaine), test d'injection de fichier, création d'un malware qui utilise une technique d'évitement, phising avec pièce jointe, Social engeenering (phishing, partage clé USB virulé), Exploitation des failles et de l'inconscience des utilisateurs, reverse shell</t>
+  </si>
+  <si>
+    <t>Utilisation de OpenVPN pour avoir accès à la machine distante</t>
+  </si>
+  <si>
+    <t>Règle ANSI --&gt; cybersécurité</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +96,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,68 +160,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,18 +212,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,15 +245,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157108</xdr:rowOff>
+      <xdr:colOff>20508</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6086700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170720</xdr:rowOff>
+      <xdr:colOff>6037843</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -265,8 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54125" y="4224843"/>
-          <a:ext cx="6032575" cy="2882318"/>
+          <a:off x="20508" y="5647991"/>
+          <a:ext cx="6026860" cy="2878508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,15 +289,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166183</xdr:rowOff>
+      <xdr:colOff>160693</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>6955043</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52629</xdr:rowOff>
+      <xdr:colOff>7097134</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -309,8 +320,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6297706" y="4233918"/>
-          <a:ext cx="6932631" cy="2575858"/>
+          <a:off x="6435987" y="6200886"/>
+          <a:ext cx="6930726" cy="2554903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>359356</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC69B12-1115-4AA8-AD08-97315291F0B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14709321" y="0"/>
+          <a:ext cx="7683809" cy="8961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,7 +643,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,23 +652,23 @@
     <col min="2" max="2" width="122.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -623,7 +678,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -643,7 +698,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -663,7 +718,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -671,7 +726,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -696,13 +751,19 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13"/>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A14"/>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>

--- a/relation_entre_activite_bpsplunk_et_referentiel.xlsx
+++ b/relation_entre_activite_bpsplunk_et_referentiel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D00D836-3E52-49E0-A97F-A81DE8CB857C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895E771-5823-40A2-B332-31005C6E87B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relation" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>6037843</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>105390</xdr:rowOff>
+      <xdr:rowOff>105389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,8 +340,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>359356</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>31425</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,7 +643,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,7 +708,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
